--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/93.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/93.xlsx
@@ -479,13 +479,13 @@
         <v>-7.220750903175364</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69293158297339</v>
+        <v>-10.69336362896717</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.042120293193598</v>
+        <v>-4.067899037488957</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.762347331527549</v>
+        <v>-6.727731282814025</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.336481202698571</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.0503776351582</v>
+        <v>-11.05029908134115</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.089933383171582</v>
+        <v>-4.120922863997947</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.77327940440039</v>
+        <v>-6.743559876949672</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.299166887158584</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88488101828982</v>
+        <v>-11.88596767942568</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.837945830376881</v>
+        <v>-3.864994528047887</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.606470373893958</v>
+        <v>-6.576619923414823</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.254104044489208</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73458456502068</v>
+        <v>-12.73203156596654</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.93442301001756</v>
+        <v>-3.969025966428242</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.94651675560211</v>
+        <v>-6.912398214396571</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.209337415320383</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.44585010150313</v>
+        <v>-13.43963125765331</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.687737839873757</v>
+        <v>-3.721463611994043</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.511852301256804</v>
+        <v>-6.482669558222597</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.204366591146889</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.13623341495303</v>
+        <v>-14.12960870971512</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.746024772125121</v>
+        <v>-3.783625865886559</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.68438266810507</v>
+        <v>-6.65563197106464</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.249819244300906</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.74901864946002</v>
+        <v>-14.738597176398</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.565521192846244</v>
+        <v>-3.599037488121063</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.379384381104219</v>
+        <v>-6.359601911510372</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3530947037413214</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.66147360371128</v>
+        <v>-15.65026659247876</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.410783265559884</v>
+        <v>-3.445765898752976</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.174725503082358</v>
+        <v>-6.166176229326711</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.4980575355882401</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.3130513315383</v>
+        <v>-16.3017264895802</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.402404191741179</v>
+        <v>-3.439664885628732</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.738555433910253</v>
+        <v>-5.727649545643096</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>1.3011782832869</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.84225530470371</v>
+        <v>-16.82303580413205</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.253479246916545</v>
+        <v>-3.287715618847659</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.505067305030911</v>
+        <v>-5.49291764799379</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>2.063010211088564</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.46860416495472</v>
+        <v>-17.45201621725426</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.369516327002763</v>
+        <v>-3.3978611626551</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.908097572356727</v>
+        <v>-4.895293300177519</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>2.790302747268604</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.36482466368224</v>
+        <v>-18.35026602292224</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.148452793520219</v>
+        <v>-3.177504613526009</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.263144549767618</v>
+        <v>-4.251806615506683</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>3.481541421040363</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.09915883777181</v>
+        <v>-19.0905571948048</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.03195748283454</v>
+        <v>-3.061258056594323</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.696391852052138</v>
+        <v>-3.676085690344621</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>4.139347535466108</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.8561819726861</v>
+        <v>-19.84108654750959</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.959478494302745</v>
+        <v>-2.990376329009218</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.099592319314897</v>
+        <v>-3.079849126629574</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>4.763844499267278</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.70969537954391</v>
+        <v>-20.68839420282042</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.955930480232637</v>
+        <v>-2.991397528630873</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.486466684934023</v>
+        <v>-2.45708755735719</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>5.342281249345089</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.42211303867643</v>
+        <v>-21.39912295488636</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.876682771131669</v>
+        <v>-2.912136727227063</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.066321594440192</v>
+        <v>-2.037322143645769</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>5.860663131713498</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.32775999544999</v>
+        <v>-22.30220382030294</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.782994251996277</v>
+        <v>-2.820503699637822</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.844027384490525</v>
+        <v>-1.82077545464362</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>6.302647388681836</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.16993546804686</v>
+        <v>-23.1435282932151</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.793350263544082</v>
+        <v>-2.827625912383721</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.366655838275509</v>
+        <v>-1.334605880918964</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>6.649735231207958</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.97145934032017</v>
+        <v>-23.94716002624593</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.569694454098876</v>
+        <v>-2.602503765020242</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.134895893371275</v>
+        <v>-1.108266149391204</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>6.892584180225558</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.41996235876918</v>
+        <v>-24.39245543049871</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.408449652300178</v>
+        <v>-2.439831902211795</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7442739457855356</v>
+        <v>-0.7174216326571554</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>7.029188447153141</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.08277328243441</v>
+        <v>-25.05542346179804</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.194966562162993</v>
+        <v>-2.221779598382847</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.605220597303563</v>
+        <v>-0.5905310335151464</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>7.064289078868819</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.65295616349442</v>
+        <v>-25.62657517326834</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.189376148849576</v>
+        <v>-2.215560754533028</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2249415689627877</v>
+        <v>-0.202606100314803</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>7.014054748351562</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.09149593948087</v>
+        <v>-26.06538988761447</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.131770016345981</v>
+        <v>-2.153699623605872</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2696910600758073</v>
+        <v>-0.251021436223506</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>6.899803428627192</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.36727220653899</v>
+        <v>-26.34087812401007</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.782755407191247</v>
+        <v>-1.803585261012433</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2520950050565275</v>
+        <v>-0.2359129187441541</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>6.741394103588078</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.28338982223205</v>
+        <v>-26.2552282788195</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.679718983826863</v>
+        <v>-1.696359300738697</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4116639920914849</v>
+        <v>-0.3956128288075287</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>6.555151986389995</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.19869571514893</v>
+        <v>-26.16161831350116</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.752734756775169</v>
+        <v>-1.768314597156823</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3745996827465584</v>
+        <v>-0.3652648708204076</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>6.347922432427556</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.36957645183913</v>
+        <v>-26.33858697101277</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.470006476908095</v>
+        <v>-1.4858219787409</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7103386968197817</v>
+        <v>-0.7022738382692784</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>6.116658138633173</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.28099393081202</v>
+        <v>-26.24293460645112</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.377967587930761</v>
+        <v>-1.389829214305365</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7846637000522605</v>
+        <v>-0.7790732867388435</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>5.853919478849884</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.09602587626411</v>
+        <v>-26.06148838136764</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.45760806611698</v>
+        <v>-1.469404230977376</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9274221702384415</v>
+        <v>-0.9235206639916073</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>5.550755179627203</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.7597893546829</v>
+        <v>-25.72670510540186</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.369824175563207</v>
+        <v>-1.380782433041732</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.411771913868098</v>
+        <v>-1.410161560618565</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.203122878210086</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.77392904175197</v>
+        <v>-25.73681236319567</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.20077636127084</v>
+        <v>-1.209692219506056</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.702460313862941</v>
+        <v>-1.696293839224488</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>4.813440704752853</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.42443001739209</v>
+        <v>-25.38910698432511</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.170166557226885</v>
+        <v>-1.177157846944366</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.202547005508352</v>
+        <v>-2.194455962352165</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>4.385310255514257</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.87938435778819</v>
+        <v>-24.85105261443869</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.189726457672423</v>
+        <v>-1.194701532752279</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.308751766160434</v>
+        <v>-2.303331552783959</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>3.926618290478324</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.46303603511846</v>
+        <v>-24.43076350861361</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.356849703447057</v>
+        <v>-1.361170163384826</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.522130117874885</v>
+        <v>-2.521724256486792</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>3.448202904502047</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.8153074443269</v>
+        <v>-23.78581048602449</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.356273642122021</v>
+        <v>-1.360869040419467</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.717467276273438</v>
+        <v>-2.723227889523798</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.957024827000114</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.05677869458582</v>
+        <v>-23.02967762770345</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.335653265146302</v>
+        <v>-1.338206264200439</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.845536182671203</v>
+        <v>-2.844580444563757</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>2.462048913978369</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.67610689715979</v>
+        <v>-22.65273713658731</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.412308698284608</v>
+        <v>-1.416118558411551</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.155103683363816</v>
+        <v>-3.150469008157844</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.976357394769356</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.03306535078558</v>
+        <v>-22.00045242440684</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.325912591832058</v>
+        <v>-1.333270466029108</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.383289429592259</v>
+        <v>-3.377633554764634</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.508336613090824</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.54524614690286</v>
+        <v>-21.51282960506675</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.49454145243349</v>
+        <v>-1.502711049406727</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.614460220868617</v>
+        <v>-3.608699607618257</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.064651228254532</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.09921757369094</v>
+        <v>-21.08426616384569</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.409690237716263</v>
+        <v>-1.422193386930111</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.618243896389875</v>
+        <v>-3.61388415954358</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6528566813981921</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.26619362078043</v>
+        <v>-20.23792733894515</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.136440785106598</v>
+        <v>-1.150554287569979</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.726988563793252</v>
+        <v>-3.719722335716094</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2751623933628591</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.45109303046025</v>
+        <v>-19.43348388313813</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.144165243783217</v>
+        <v>-1.157624131104511</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.867010742685512</v>
+        <v>-3.861040652589685</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.06652495585026677</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.02533134204732</v>
+        <v>-19.00633441062397</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.165662805049331</v>
+        <v>-1.181137907008251</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.091766305569424</v>
+        <v>-4.084028754589964</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.3678045793163316</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.54086376769209</v>
+        <v>-18.52750961879353</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.154495070725339</v>
+        <v>-1.169276280633647</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.205839540229383</v>
+        <v>-4.200746634423951</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.6296904239486406</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.09038381151398</v>
+        <v>-18.08362818324765</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.118255576459441</v>
+        <v>-1.132617832676814</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.346228303601212</v>
+        <v>-4.347328057039917</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.854865777126485</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.32563621792308</v>
+        <v>-17.31399716069678</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.2121535724403</v>
+        <v>-1.229095012317494</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.649943544923572</v>
+        <v>-4.646159869402314</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.045824399555331</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.47891771624013</v>
+        <v>-16.46462092153696</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.13721323097426</v>
+        <v>-1.15306800971559</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.603531331349654</v>
+        <v>-4.604958392359402</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.210888823310108</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.85332820955393</v>
+        <v>-15.84937433409573</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.087410110964334</v>
+        <v>-1.10960156428106</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.830905354801911</v>
+        <v>-4.828313078839249</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-1.35924658791415</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.96589264603321</v>
+        <v>-14.95462017328648</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.043734188684336</v>
+        <v>-1.062508550959371</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.954431232113596</v>
+        <v>-4.954103924542553</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-1.497989576404159</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.17359884726332</v>
+        <v>-14.16549471180429</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.044074588558221</v>
+        <v>-1.062220520296853</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.13680701069884</v>
+        <v>-5.134476580793013</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-1.63550297892462</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.45210822226148</v>
+        <v>-13.43312438314097</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.991063854352072</v>
+        <v>-1.010558293283402</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.035250017555571</v>
+        <v>-5.03031421938424</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.776534738190818</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.75500855745377</v>
+        <v>-12.73832896363341</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9881180862126836</v>
+        <v>-1.010348816437934</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.115924787666287</v>
+        <v>-5.112023281419453</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.920937231265055</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.39165787668735</v>
+        <v>-12.37726943586429</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.185078690163611</v>
+        <v>-1.206759543669509</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.285587940192215</v>
+        <v>-5.280534311295309</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.067777052086795</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.71705078816173</v>
+        <v>-11.70772906853842</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.274682410812384</v>
+        <v>-1.297476110059829</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.766023085272195</v>
+        <v>-5.762697640350397</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.213356906369815</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.29369808347167</v>
+        <v>-11.28372174870628</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.289633820657635</v>
+        <v>-1.313998596246087</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.899302728200967</v>
+        <v>-5.896396236970103</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.353558017230726</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.52058450836491</v>
+        <v>-10.51196977309505</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.278544640150693</v>
+        <v>-1.303131984887455</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.354351898070839</v>
+        <v>-6.349913607407494</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.486640704368677</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.0450982537591</v>
+        <v>-10.02894235205241</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.481972841705433</v>
+        <v>-1.508838247136655</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.196275433559839</v>
+        <v>-6.188158205797968</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.609323340506447</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.481042570429016</v>
+        <v>-9.470202143676069</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.470582538233131</v>
+        <v>-1.496492205556907</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.420022889124938</v>
+        <v>-6.410648800290262</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-2.718105918621761</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.190760031822267</v>
+        <v>-9.177707005889065</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.548128247964675</v>
+        <v>-1.572349008221868</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.299953379763467</v>
+        <v>-6.287725168909295</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.811221867495629</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.554002790812078</v>
+        <v>-8.533408598442042</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.633791185458088</v>
+        <v>-1.662188390321792</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.715411425839961</v>
+        <v>-6.711117150507874</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.885428213898989</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.97990531120239</v>
+        <v>-7.958250642302175</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.547958048027732</v>
+        <v>-1.572925069546904</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.579840629913887</v>
+        <v>-6.572600586442413</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.938179282845434</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.518598020574172</v>
+        <v>-7.498867920191691</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.541071496732984</v>
+        <v>-1.571039777937695</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.644045283049712</v>
+        <v>-6.634239148221259</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.969273058957817</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.096541453865449</v>
+        <v>-7.069990263702428</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.681983952218482</v>
+        <v>-1.710590633927653</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.821576909583517</v>
+        <v>-6.813446589518805</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.978828047136445</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.667650705073344</v>
+        <v>-6.641924329989353</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.56516133396176</v>
+        <v>-1.592380231569709</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.005117903121675</v>
+        <v>-7.004607303310848</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.96925763547893</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.429213685719829</v>
+        <v>-6.406289063443967</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.722609367936358</v>
+        <v>-1.747942973935098</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.034156630824624</v>
+        <v>-7.030844278205667</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.944673417216257</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.291718321276022</v>
+        <v>-6.264905285056167</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.713392386735783</v>
+        <v>-1.73847723898053</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.08661748831142</v>
+        <v>-7.080437921370125</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.907369219264304</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.01621699257758</v>
+        <v>-5.989050464180998</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.638399676058376</v>
+        <v>-1.656820546156684</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.046960903003832</v>
+        <v>-7.045271995937249</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.859387003625834</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.919019736280606</v>
+        <v>-5.889732254823665</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.921913494095954</v>
+        <v>-1.943568162996169</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.083750273989082</v>
+        <v>-7.084535812159586</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.802275192501626</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.813731436827445</v>
+        <v>-5.780634095243562</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.868784929164229</v>
+        <v>-1.888240091187034</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.822218432422762</v>
+        <v>-6.821013940561324</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.735108264168666</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.549384750150153</v>
+        <v>-5.514140270900227</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.881615385949121</v>
+        <v>-1.899905333019012</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.730415204896579</v>
+        <v>-6.732365958019996</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.65629007690672</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.634118134141805</v>
+        <v>-5.593950949023389</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.962591279025197</v>
+        <v>-1.980776487672354</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.550160379371694</v>
+        <v>-6.554873608394716</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.562551969865914</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.705746122988888</v>
+        <v>-5.665395645630689</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.049864569768143</v>
+        <v>-2.067683193935732</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.382814564448752</v>
+        <v>-6.386545870758644</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.447921234126457</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.909671832051614</v>
+        <v>-5.871206646302622</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.910955236617429</v>
+        <v>-1.928603660848076</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.287568061275195</v>
+        <v>-6.297976442034367</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.308341008010582</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.058609869179089</v>
+        <v>-6.016923976931033</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.16422583509062</v>
+        <v>-2.177030107269828</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.14212566900646</v>
+        <v>-6.151656865475236</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.140790540559896</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.536845507381659</v>
+        <v>-6.494465723082992</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.150924055403426</v>
+        <v>-2.168153525943138</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.910260985679491</v>
+        <v>-5.923431842338267</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.941072684768311</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.00651877952574</v>
+        <v>-6.970082900717216</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.201512713583856</v>
+        <v>-2.217328215416661</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.963049150737331</v>
+        <v>-5.973549177616395</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.707547314301528</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.490855430852554</v>
+        <v>-7.453974413747412</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.154760100136052</v>
+        <v>-2.172892939571843</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.592602441830691</v>
+        <v>-5.604464068205295</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.439625560927803</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.890641990427501</v>
+        <v>-7.857007864427107</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.182712166703137</v>
+        <v>-2.195136762099935</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.43141000924336</v>
+        <v>-5.443310912526489</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.135045579677831</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.265801928357162</v>
+        <v>-8.229235126520221</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.450606867450536</v>
+        <v>-2.464641816096866</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.03645450941701</v>
+        <v>-5.046862890176182</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.7946448705327633</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.176201391062268</v>
+        <v>-9.143248064809644</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.377067402388561</v>
+        <v>-2.392607965861689</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.034909617681686</v>
+        <v>-5.048931474025175</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4212497731427247</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.916152163070942</v>
+        <v>-9.888056081172596</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.467273368968053</v>
+        <v>-2.483272163040642</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.864853696070506</v>
+        <v>-4.878652983265686</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.01733192986266678</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.67335859022501</v>
+        <v>-10.64763221514102</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.524303440146612</v>
+        <v>-2.532185006457331</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.540138400990016</v>
+        <v>-4.555102903138109</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.4093130565118185</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.81144629165057</v>
+        <v>-11.78397864028863</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.609717623886033</v>
+        <v>-2.620990096632759</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.435923670369877</v>
+        <v>-4.451948649048149</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.8468074871059917</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.62700511257022</v>
+        <v>-12.60085978379529</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.752476094072214</v>
+        <v>-2.763630736093365</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.073777481464892</v>
+        <v>-4.091936505506366</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.283383866474211</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.65700276173449</v>
+        <v>-13.62829134160258</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.847827335668505</v>
+        <v>-2.858327362547569</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.750554708908359</v>
+        <v>-3.763175688847783</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.703920113371766</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.65547414565589</v>
+        <v>-14.62741734066607</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.880872308041021</v>
+        <v>-2.890076196938755</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.304198828125392</v>
+        <v>-3.320105976078089</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.092733276461096</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.02625134548745</v>
+        <v>-16.00437410743892</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.791766094900234</v>
+        <v>-2.805931966574981</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.053494321009179</v>
+        <v>-3.068838499939682</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>2.43746803715744</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.44579737340444</v>
+        <v>-17.41994007529203</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.025502977533569</v>
+        <v>-3.034523574191518</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.781122052689911</v>
+        <v>-2.793193155909982</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.725041812536692</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.91731984360308</v>
+        <v>-18.89233972978107</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.225082042052841</v>
+        <v>-3.235857007291582</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.652267608121643</v>
+        <v>-2.661183466356858</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.942924678782147</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.54969434651517</v>
+        <v>-20.52991187692132</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.439036455092329</v>
+        <v>-3.453542726640961</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.70800154131887</v>
+        <v>-2.712610031919158</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>3.082459939839894</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.02433278479014</v>
+        <v>-22.0028875927354</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.442257161591393</v>
+        <v>-3.44920917440035</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.602477580414558</v>
+        <v>-2.611197054107148</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>3.136606392651403</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.01568513931952</v>
+        <v>-23.99383408587668</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.665507109648506</v>
+        <v>-3.683247179999045</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.571684484130818</v>
+        <v>-2.578571035425566</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>3.101426033276262</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.18759344233914</v>
+        <v>-26.16761458820267</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.468572690303263</v>
+        <v>-3.484388192136068</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.731345117285668</v>
+        <v>-2.740378806246459</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>2.981065081396097</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.36153105229923</v>
+        <v>-28.34057027544963</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.975192441066695</v>
+        <v>-3.994883264540651</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.945888683953033</v>
+        <v>-2.949619990262925</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>2.782031894797359</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.40038228153839</v>
+        <v>-30.37452498342598</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.956260971157559</v>
+        <v>-3.976017256145723</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.279506744965897</v>
+        <v>-3.283382066607047</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>2.52403320487934</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.66414618129556</v>
+        <v>-32.63501580747272</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.106874823048775</v>
+        <v>-4.122219001979278</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.36372952914672</v>
+        <v>-3.367617943090713</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>2.219180636614293</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.16969872993373</v>
+        <v>-35.1440247240611</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.389563826007325</v>
+        <v>-4.408861880396029</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.784149558000228</v>
+        <v>-3.784804173142314</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>1.899391934394151</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.57165188618532</v>
+        <v>-37.54737875671676</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.240795988816791</v>
+        <v>-4.255642660239308</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.181278380098305</v>
+        <v>-4.186332008995211</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.565017636893413</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.19554576020985</v>
+        <v>-40.17263423023683</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.362305651490851</v>
+        <v>-4.378815045374267</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.432048348728726</v>
+        <v>-4.437167439139841</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.263935130087125</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.63723405558608</v>
+        <v>-42.61563175589723</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.51748871707383</v>
+        <v>-4.534037387865772</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.94589505066079</v>
+        <v>-4.95385517078856</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.9546589360913855</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.00118025668814</v>
+        <v>-44.97737845012188</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.605298792233287</v>
+        <v>-4.620603694255265</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.145015884580602</v>
+        <v>-5.147490329817688</v>
       </c>
     </row>
   </sheetData>
